--- a/biology/Botanique/Stipe_(faux-tronc)/Stipe_(faux-tronc).xlsx
+++ b/biology/Botanique/Stipe_(faux-tronc)/Stipe_(faux-tronc).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le stipe (ou faux-tronc) est, en botanique, la tige robuste de plantes terrestres comme les palmiers, les yuccas, les dragonniers (Dracaena sp.), les fougères arborescentes ou encore les bananiers[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe (ou faux-tronc) est, en botanique, la tige robuste de plantes terrestres comme les palmiers, les yuccas, les dragonniers (Dracaena sp.), les fougères arborescentes ou encore les bananiers.
 </t>
         </is>
       </c>
@@ -511,32 +523,176 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stipe n'est pas un véritable tronc. Il s'agit d'un emboîtement de gaines foliaires coriaces, qui se caractérise principalement par l'absence de croissance en épaisseur, contrairement au tronc des arbres dicotylédones. Hormis chez le bananier, la surface du stipe est marquée par les empreintes laissées par la base du pétiole des feuilles tombées et sa coupe transversale ne montre pas de cernes de croissance du bois.
 	Comparaison de coupes transversales dans des stipes et dans un tronc
 			Le stipe de palmier ne montre pas de cernes de croissance.
 			Le stipe de bananier est formé par la base des feuilles enroulées.
 			Dans un vrai tronc (ici un Pinus) les cernes de croissance du bois, de l'aubier et du duramen sont bien visibles.
-Stipe de palmier
-Chez les palmiers, le diamètre du stipe est constant, du pied de la plante jusqu'au bouquet de feuilles terminales. On peut toutefois constater parfois des irrégularités dans le diamètre, mais elles s'expliquent par des variations climatiques qui ont pu affecter la pousse de la plante. La surface du stipe est marquée par les empreintes losangiques caractéristiques de la base des feuilles. Dans les plantations de palmier à huile (Elaeis guineensis), lors de l'ablation des feuilles, la base du pétiole, appelée « chicot », reste attachée au stipe, montrant l'insertion spiralée des feuilles[2]. Le stipe n'est pas ramifié, sauf rares exceptions (genre Hyphaene).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Stipe de palmier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les palmiers, le diamètre du stipe est constant, du pied de la plante jusqu'au bouquet de feuilles terminales. On peut toutefois constater parfois des irrégularités dans le diamètre, mais elles s'expliquent par des variations climatiques qui ont pu affecter la pousse de la plante. La surface du stipe est marquée par les empreintes losangiques caractéristiques de la base des feuilles. Dans les plantations de palmier à huile (Elaeis guineensis), lors de l'ablation des feuilles, la base du pétiole, appelée « chicot », reste attachée au stipe, montrant l'insertion spiralée des feuilles. Le stipe n'est pas ramifié, sauf rares exceptions (genre Hyphaene).
 	Stipe de palmier
 			Base d'un stipe de Cocotier du Chili.
 			Stipes groupés de Chamaerops humilis (palmier dit « cespiteux »).
 			Des palmiers « Doum » (genre Hyphaene, nord-est de l'Afrique) : cas rarissime de palmiers à stipe ramifié (à ne pas confondre avec le cas beaucoup plus fréquent du palmier à plusieurs stipes ou cespiteux).
 			Le stipe du Cocotier du Chili peut mesurer jusqu'à 1 m de diamètre et plus.
-Stipe de bananier
-Le stipe des bananiers est formé d'une superposition de feuilles enroulées en cornet[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Stipe de bananier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe des bananiers est formé d'une superposition de feuilles enroulées en cornet.
 	Stipe de bananier
 			Base de stipes de bananiers coupés pour l'hiver
 			Stipes de Musa acuminata
-Stipe de dragonnier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stipe de dragonnier</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Stipe de dragonnier
 			Stipe d'un Dragonnier de Madagascar avec la trace des feuilles
 			Groupe de Dragonniers de Madagascar
 			Ramifications du stipe d'un Dragonnier des Canaries
 			Stipe d'un Dragonnier de Socotra
-Stipe de yucca
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(faux-tronc)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Stipe de yucca</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Stipe de yucca
 			Base du stipe d'un Yucca filifera
 			Stipe ramifié de Yucca filifera
@@ -546,31 +702,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Stipe_(faux-tronc)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Stipe_(faux-tronc)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Quelques autres plantes dotées d'un faux-tronc
